--- a/medicine/Enfance/Mimi_la_souris/Mimi_la_souris.xlsx
+++ b/medicine/Enfance/Mimi_la_souris/Mimi_la_souris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimi la souris (Maisy Mouse) est une souris créée par l'illustratrice britannique Lucy Cousins.
 L'œuvre originale a été adaptée en série animée : elle a été développée par Nickelodeon entre 1999 et 2005.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimi la souris est un adorable petit rongeur. Entourée de ses amis, elle sait se débrouiller face aux épreuves et ne recule pas devant les difficultés, ce qui la rend davantage attachante et mignonne
 </t>
@@ -543,7 +557,9 @@
           <t>Série d'animation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>52 épisodes de Mimi la souris ont été réalisés.
 Sybille Tureau : voix-off et bruitages de Mimi.
@@ -575,7 +591,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mimi : souris vivant dans une maison jaune avec un toit rouge
 Panda : peluche et jouet de Mimi
